--- a/tecto2umr/pdt-c-functors-comments.xlsx
+++ b/tecto2umr/pdt-c-functors-comments.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="14130"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24920" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -1425,9 +1430,6 @@
     <t>NOT in UMR, NEW to cover this nuance</t>
   </si>
   <si>
-    <t>NOT in UMR, NEW to cover EFF</t>
-  </si>
-  <si>
     <t>NORM</t>
   </si>
   <si>
@@ -1692,13 +1694,17 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT in UMR, NEW to cover EFF
+TODO - nesedí pro slovesa komunikace! </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1943,8 +1949,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1952,14 +1958,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1997,9 +2006,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2034,7 +2043,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2069,7 +2078,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2246,24 +2255,24 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="4"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="6" customWidth="1"/>
     <col min="6" max="6" width="62" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="74.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.26953125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="35.453125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="74.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="6">
         <v>0</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -2306,10 +2315,10 @@
         <v>10207</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -2320,10 +2329,10 @@
         <v>8427</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -2334,10 +2343,10 @@
         <v>2793</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -2348,11 +2357,11 @@
         <v>209767</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -2363,24 +2372,24 @@
         <v>422</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="6">
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="116">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="159.5">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="29">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -2449,7 +2458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="58">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -2478,7 +2487,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="29">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>81</v>
@@ -2504,23 +2513,23 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="6">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -2554,11 +2563,11 @@
         <v>84</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -2578,7 +2587,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -2592,14 +2601,14 @@
         <v>84</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -2613,11 +2622,11 @@
         <v>104</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -2631,7 +2640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -2645,7 +2654,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>15</v>
       </c>
@@ -2673,21 +2682,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="43.5">
       <c r="A24" s="6">
         <v>17</v>
       </c>
@@ -2704,10 +2713,10 @@
         <v>107</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>85</v>
@@ -2716,7 +2725,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>18</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>111</v>
@@ -2742,7 +2751,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="43.5">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -2794,22 +2803,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>21</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>22</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="29">
       <c r="A30" s="6">
         <v>23</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>24</v>
       </c>
@@ -2869,10 +2878,10 @@
         <v>160</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>25</v>
       </c>
@@ -2886,11 +2895,11 @@
         <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="6">
         <v>26</v>
       </c>
@@ -2910,22 +2919,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>27</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="6">
         <v>28</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>12042</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>107</v>
@@ -2948,7 +2957,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>29</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="6">
         <v>30</v>
       </c>
@@ -2982,13 +2991,13 @@
         <v>172</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="6">
         <v>31</v>
       </c>
@@ -3008,7 +3017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="6">
         <v>32</v>
       </c>
@@ -3031,7 +3040,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="6">
         <v>33</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="29">
       <c r="A41" s="6">
         <v>34</v>
       </c>
@@ -3077,12 +3086,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>35</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
@@ -3091,13 +3100,13 @@
         <v>172</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="6">
         <v>36</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>37</v>
       </c>
@@ -3128,16 +3137,16 @@
         <v>1617</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="6">
         <v>38</v>
       </c>
@@ -3151,25 +3160,25 @@
         <v>162</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="6">
         <v>39</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="29">
       <c r="A47" s="6">
         <v>40</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="6">
         <v>41</v>
       </c>
@@ -3206,13 +3215,13 @@
         <v>656</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" ht="43.5">
       <c r="A49" s="6">
         <v>42</v>
       </c>
@@ -3229,13 +3238,13 @@
         <v>107</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="6">
         <v>43</v>
       </c>
@@ -3249,26 +3258,26 @@
         <v>159</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="6">
         <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="6">
         <v>45</v>
       </c>
@@ -3286,23 +3295,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="6">
         <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E53" s="2"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="43.5">
       <c r="A54" s="6">
         <v>47</v>
       </c>
@@ -3316,10 +3325,10 @@
         <v>130</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>94</v>
@@ -3328,7 +3337,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="6">
         <v>48</v>
       </c>
@@ -3345,10 +3354,10 @@
         <v>107</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="6">
         <v>49</v>
       </c>
@@ -3362,10 +3371,10 @@
         <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="29">
       <c r="A57" s="6">
         <v>50</v>
       </c>
@@ -3379,13 +3388,13 @@
         <v>67</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="6">
         <v>51</v>
       </c>
@@ -3399,29 +3408,29 @@
         <v>67</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F58" s="2"/>
       <c r="H58" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="6">
         <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="6">
         <v>53</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="6">
         <v>54</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="6">
         <v>55</v>
       </c>
@@ -3474,23 +3483,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="6">
         <v>56</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E63" s="2"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="6">
         <v>57</v>
       </c>
@@ -3501,13 +3510,13 @@
         <v>7134</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="6">
         <v>58</v>
       </c>
@@ -3518,13 +3527,13 @@
         <v>99</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="6">
         <v>59</v>
       </c>
@@ -3538,10 +3547,10 @@
         <v>69</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="6">
         <v>60</v>
       </c>
@@ -3552,16 +3561,16 @@
         <v>211</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -3572,13 +3581,13 @@
         <v>3054</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -3589,16 +3598,16 @@
         <v>4122</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -3612,10 +3621,10 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -3626,28 +3635,28 @@
         <v>491</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="6">
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -3665,23 +3674,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="6">
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E74" s="2"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -3697,23 +3706,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="6">
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E76" s="2"/>
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -3729,23 +3738,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="6">
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E78" s="2"/>
       <c r="G78" s="28"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -3761,7 +3770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -3809,7 +3818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -3825,21 +3834,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="6">
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="D86" s="10" t="s">
         <v>119</v>
       </c>
@@ -3847,100 +3856,100 @@
         <v>107</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="D88" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="D89" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="D90" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="D91" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="D92" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="D93" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6">
       <c r="D97" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6">
       <c r="D99" s="4" t="s">
         <v>138</v>
       </c>
@@ -3948,7 +3957,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:6">
       <c r="D100" s="4" t="s">
         <v>139</v>
       </c>
@@ -3956,7 +3965,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:6">
       <c r="D101" s="4" t="s">
         <v>140</v>
       </c>
@@ -3964,7 +3973,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:6">
       <c r="D102" s="4" t="s">
         <v>96</v>
       </c>
@@ -3972,7 +3981,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:6">
       <c r="D103" s="4" t="s">
         <v>141</v>
       </c>
@@ -3980,7 +3989,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:6">
       <c r="D105" s="11" t="s">
         <v>82</v>
       </c>
@@ -3991,10 +4000,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:6">
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:6">
       <c r="D107" s="11" t="s">
         <v>143</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:6">
       <c r="D108" s="11" t="s">
         <v>144</v>
       </c>
@@ -4016,7 +4025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:6">
       <c r="D109" s="11" t="s">
         <v>145</v>
       </c>
@@ -4027,7 +4036,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:6">
       <c r="D110" s="12" t="s">
         <v>146</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:6">
       <c r="D111" s="12" t="s">
         <v>147</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:6">
       <c r="D112" s="11" t="s">
         <v>148</v>
       </c>
@@ -4060,7 +4069,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6">
       <c r="D113" s="11" t="s">
         <v>149</v>
       </c>
@@ -4071,12 +4080,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6">
       <c r="D114" s="11"/>
       <c r="E114" s="3"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6">
       <c r="D115" s="3" t="s">
         <v>164</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6">
       <c r="D116" s="3" t="s">
         <v>165</v>
       </c>
@@ -4098,7 +4107,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6">
       <c r="D117" s="3" t="s">
         <v>166</v>
       </c>
@@ -4109,11 +4118,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6">
       <c r="D118" s="3"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6">
       <c r="D119" s="6" t="s">
         <v>156</v>
       </c>
@@ -4124,7 +4133,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6">
       <c r="D120" s="6" t="s">
         <v>158</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6">
       <c r="D121" s="6" t="s">
         <v>161</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6">
       <c r="D122" s="6"/>
       <c r="F122" s="2"/>
     </row>
@@ -4169,7 +4178,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4181,7 +4190,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tecto2umr/pdt-c-functors-comments.xlsx
+++ b/tecto2umr/pdt-c-functors-comments.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24920" windowHeight="14130"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="List2" sheetId="2" r:id="rId2"/>
+    <sheet name="APP" sheetId="2" r:id="rId2"/>
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$1:$J$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$D$1:$D$122</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="242">
   <si>
     <t>RSTR</t>
   </si>
@@ -1418,9 +1413,6 @@
     </r>
   </si>
   <si>
-    <t>affectet</t>
-  </si>
-  <si>
     <t>according-to</t>
   </si>
   <si>
@@ -1437,9 +1429,6 @@
   </si>
   <si>
     <t>contrast-91</t>
-  </si>
-  <si>
-    <t>event</t>
   </si>
   <si>
     <t>discourse role</t>
@@ -1556,6 +1545,160 @@
     <t>subrole for NE</t>
   </si>
   <si>
+    <t>TODO - mod OR part
+?? how directed</t>
+  </si>
+  <si>
+    <t>but-91</t>
+  </si>
+  <si>
+    <t>keyword, args</t>
+  </si>
+  <si>
+    <t>keyword, ops</t>
+  </si>
+  <si>
+    <t>contra</t>
+  </si>
+  <si>
+    <t>consecutive</t>
+  </si>
+  <si>
+    <t>exclusive-disjunctive</t>
+  </si>
+  <si>
+    <r>
+      <t>TODO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - nebo obecnější</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  'or'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>have-cause-91</t>
+  </si>
+  <si>
+    <t>companion</t>
+  </si>
+  <si>
+    <t>(root)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = motivation for the actor to initiate the action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT in UMR, NEW to cover EFF
+TODO - nesedí pro slovesa komunikace! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT in UMR, NEW to cover this nuance 
+</t>
+  </si>
+  <si>
+    <t>t_lemma = #Dash, versus, kontra, vs., - , #Separ, tenhle, v, x</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMR rozlišuje date-interval, value-interval, between, slash </t>
+  </si>
+  <si>
+    <r>
+      <t>TODO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - hyperrole</t>
+    </r>
+  </si>
+  <si>
+    <t>event, args</t>
+  </si>
+  <si>
+    <t>ARG1 for main clause, ARG2 for contrastive clause</t>
+  </si>
+  <si>
+    <t>ARG1 for main clause, ARG2 for contrastive clause (with conjunction)</t>
+  </si>
+  <si>
+    <t>ARG1 for main clause, ARG2 for causative clause (with conjunction)</t>
+  </si>
+  <si>
+    <t>affectee</t>
+  </si>
+  <si>
+    <t>!!! POZOR … podřadné spojení --&gt; souřadné</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1577,134 +1720,125 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+ALE příbuzenské vztahy --&gt; </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>TODO - mod OR part
-?? how directed</t>
-  </si>
-  <si>
-    <t>but-91</t>
-  </si>
-  <si>
-    <t>keyword, args</t>
-  </si>
-  <si>
-    <t>keyword, ops</t>
-  </si>
-  <si>
-    <t>contra</t>
-  </si>
-  <si>
-    <t>consecutive</t>
-  </si>
-  <si>
-    <t>exclusive-disjunctive</t>
-  </si>
-  <si>
-    <r>
-      <t>TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - nebo obecnější</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  'or'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>have-cause-91</t>
-  </si>
-  <si>
-    <t>companion</t>
-  </si>
-  <si>
-    <t>(root)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ---</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = motivation for the actor to initiate the action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT in UMR, NEW to cover EFF
-TODO - nesedí pro slovesa komunikace! </t>
+      <t>have-rel-role-91</t>
+    </r>
+  </si>
+  <si>
+    <t>PDT: (1) příbuzenské vztahy (kinship)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            manžel slavné spisovatelky.APP                 --&gt; !! ("kinship" příbuznost) ... have-rel-role-92!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            otec dítěte.APP (dítě.APP přináleží otci??)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            duchovní otec nové měny.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            její.APP otec, moji rodiče.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            přítel ministra.APP (ministr má přítele)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (2) příslušnosti osoby k nějakému celku, instituci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            příslušník armády.APP                          --&gt; !! part ; OK struktura (part as the parent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            brankář vedoucího týmu.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (3) příslušnosti osoby k nějakému celku, instituci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            tým brankářů.APP                               --&gt; !! group ... whole as the parent !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            organizace neslyšících.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (4) označení nositele nějaké (fyzikální, matematické, charakterové aj.) vlastnosti (vyjádřené řídícím slovem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            míra nezaměstnanosti.APP        --&gt; ?? label ... extent as the parent !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            úroveň ubytování.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            průměrnou délku vazby.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            autorova.APP upřímnost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (5) vyjádření vztahu vlastnictví (označení vlastníka předmětu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            její.APP seznam                --&gt; OK poss ("ownership"); OK struktura (possessum as the parent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            má.APP vyšší postava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            naše.APP kapela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            dům mého otce.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (6) vyjádření vztahu mezi částí a celkem (označení celku).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            střecha domu.APP               --&gt; !! part ; OK struktura (part as the parent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            okraj chodníku.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            noha od stolu.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            vnitřek prodejny.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            inzertní oddělení redakce.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            široký pás území.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            závěr utkání.APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (7) vyjádření přináležitosti v širokém smyslu (u abstraktních výrazů).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            auto roku.APP                  --&gt; ?? label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            poezie lásky.APP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1799,6 +1933,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1839,7 +1980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,7 +1998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1932,12 +2073,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1947,10 +2082,28 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1966,9 +2119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2006,9 +2159,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2043,7 +2196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2078,7 +2231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2254,25 +2407,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="62" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.26953125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="35.453125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="74.54296875" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>0</v>
       </c>
@@ -2286,7 +2439,7 @@
         <v>72</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>107</v>
@@ -2304,7 +2457,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -2315,10 +2468,10 @@
         <v>10207</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -2329,10 +2482,10 @@
         <v>8427</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -2343,10 +2496,10 @@
         <v>2793</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -2357,11 +2510,11 @@
         <v>209767</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -2372,24 +2525,29 @@
         <v>422</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="116">
+      <c r="B7" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2412,7 +2570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="159.5">
+    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -2435,7 +2593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -2458,7 +2616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="58">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -2487,7 +2645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -2504,7 +2662,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>81</v>
@@ -2513,23 +2671,26 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="B13" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -2549,7 +2710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -2563,11 +2724,11 @@
         <v>84</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -2587,7 +2748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -2601,14 +2762,14 @@
         <v>84</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -2622,11 +2783,11 @@
         <v>104</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -2640,7 +2801,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -2654,7 +2815,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -2668,7 +2829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>15</v>
       </c>
@@ -2682,21 +2843,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="43.5">
+      <c r="B23" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>17</v>
       </c>
@@ -2713,10 +2879,10 @@
         <v>107</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>85</v>
@@ -2725,7 +2891,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>18</v>
       </c>
@@ -2739,7 +2905,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>111</v>
@@ -2751,7 +2917,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="43.5">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -2777,7 +2943,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -2803,22 +2969,26 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
         <v>21</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="B28" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>22</v>
       </c>
@@ -2841,7 +3011,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="29">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>23</v>
       </c>
@@ -2864,7 +3034,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>24</v>
       </c>
@@ -2878,10 +3048,10 @@
         <v>160</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>25</v>
       </c>
@@ -2895,11 +3065,11 @@
         <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>26</v>
       </c>
@@ -2919,22 +3089,26 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
         <v>27</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="B34" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>28</v>
       </c>
@@ -2945,7 +3119,7 @@
         <v>12042</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>107</v>
@@ -2957,7 +3131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>29</v>
       </c>
@@ -2977,7 +3151,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>30</v>
       </c>
@@ -2988,16 +3162,16 @@
         <v>4932</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>31</v>
       </c>
@@ -3017,7 +3191,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>32</v>
       </c>
@@ -3040,7 +3214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>33</v>
       </c>
@@ -3063,7 +3237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="29">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>34</v>
       </c>
@@ -3086,27 +3260,27 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>35</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>36</v>
       </c>
@@ -3126,7 +3300,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>37</v>
       </c>
@@ -3137,16 +3311,16 @@
         <v>1617</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>38</v>
       </c>
@@ -3160,25 +3334,29 @@
         <v>162</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
         <v>39</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="29">
+      <c r="B46" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>40</v>
       </c>
@@ -3189,7 +3367,7 @@
         <v>15359</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -3204,7 +3382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>41</v>
       </c>
@@ -3215,13 +3393,19 @@
         <v>656</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="43.5">
+        <v>202</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>42</v>
       </c>
@@ -3238,13 +3422,13 @@
         <v>107</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43</v>
       </c>
@@ -3258,26 +3442,30 @@
         <v>159</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="6">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
         <v>44</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="B51" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>45</v>
       </c>
@@ -3295,23 +3483,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="6">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
         <v>46</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="G53" s="21"/>
-    </row>
-    <row r="54" spans="1:9" ht="43.5">
+      <c r="B53" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>47</v>
       </c>
@@ -3325,10 +3516,10 @@
         <v>130</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>94</v>
@@ -3337,7 +3528,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>48</v>
       </c>
@@ -3354,10 +3545,10 @@
         <v>107</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>49</v>
       </c>
@@ -3371,10 +3562,10 @@
         <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="29">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>50</v>
       </c>
@@ -3388,13 +3579,13 @@
         <v>67</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>51</v>
       </c>
@@ -3408,29 +3599,33 @@
         <v>67</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F58" s="2"/>
       <c r="H58" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
         <v>52</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="B59" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="30"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>53</v>
       </c>
@@ -3447,7 +3642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>54</v>
       </c>
@@ -3465,7 +3660,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>55</v>
       </c>
@@ -3483,23 +3678,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
         <v>56</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="B63" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>57</v>
       </c>
@@ -3510,13 +3708,13 @@
         <v>7134</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>58</v>
       </c>
@@ -3527,13 +3725,16 @@
         <v>99</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>202</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>59</v>
       </c>
@@ -3547,10 +3748,10 @@
         <v>69</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>60</v>
       </c>
@@ -3560,17 +3761,20 @@
       <c r="C67" s="8">
         <v>211</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>190</v>
+      <c r="D67" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>198</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -3581,13 +3785,13 @@
         <v>3054</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -3598,16 +3802,16 @@
         <v>4122</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -3621,10 +3825,10 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -3635,28 +3839,35 @@
         <v>491</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>70</v>
+      </c>
+      <c r="B72" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="6">
-        <v>70</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="C72" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" s="30"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -3667,30 +3878,33 @@
         <v>18512</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="E73" s="2"/>
       <c r="G73" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="6">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
         <v>72</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="B74" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" s="30"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -3700,29 +3914,39 @@
       <c r="C75" s="8">
         <v>5006</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="2"/>
-      <c r="G75" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="6">
+      <c r="D75" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
         <v>74</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="G76" s="27"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="B76" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="30"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -3734,27 +3958,30 @@
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="2"/>
-      <c r="G77" s="28" t="s">
+      <c r="G77" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="6">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="30">
         <v>76</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="G78" s="28"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="B78" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="30"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -3766,11 +3993,11 @@
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="2"/>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -3782,11 +4009,11 @@
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="2"/>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -3798,11 +4025,11 @@
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="2"/>
-      <c r="G81" s="29" t="s">
+      <c r="G81" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -3814,11 +4041,11 @@
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="2"/>
-      <c r="G82" s="29" t="s">
+      <c r="G82" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -3830,25 +4057,30 @@
       </c>
       <c r="D83" s="24"/>
       <c r="E83" s="2"/>
-      <c r="G83" s="30" t="s">
+      <c r="G83" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="6">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="30">
         <v>82</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="B84" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" s="30"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D86" s="10" t="s">
         <v>119</v>
       </c>
@@ -3856,100 +4088,100 @@
         <v>107</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D88" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D89" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D90" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D92" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D93" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="4:6">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="99" spans="4:6">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="4" t="s">
         <v>138</v>
       </c>
@@ -3957,7 +4189,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="4:6">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="4" t="s">
         <v>139</v>
       </c>
@@ -3965,7 +4197,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="4:6">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="4" t="s">
         <v>140</v>
       </c>
@@ -3973,7 +4205,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="4:6">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="4" t="s">
         <v>96</v>
       </c>
@@ -3981,7 +4213,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="4:6">
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="4" t="s">
         <v>141</v>
       </c>
@@ -3989,7 +4221,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="4:6">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="11" t="s">
         <v>82</v>
       </c>
@@ -4000,10 +4232,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="4:6">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="4:6">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="11" t="s">
         <v>143</v>
       </c>
@@ -4014,7 +4246,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="4:6">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="11" t="s">
         <v>144</v>
       </c>
@@ -4025,7 +4257,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="4:6">
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="11" t="s">
         <v>145</v>
       </c>
@@ -4036,7 +4268,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="4:6">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="12" t="s">
         <v>146</v>
       </c>
@@ -4047,7 +4279,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="4:6">
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" s="12" t="s">
         <v>147</v>
       </c>
@@ -4058,7 +4290,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="4:6">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="11" t="s">
         <v>148</v>
       </c>
@@ -4069,7 +4301,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="4:6">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="11" t="s">
         <v>149</v>
       </c>
@@ -4080,12 +4312,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="4:6">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="11"/>
       <c r="E114" s="3"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="4:6">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="3" t="s">
         <v>164</v>
       </c>
@@ -4096,7 +4328,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="4:6">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="3" t="s">
         <v>165</v>
       </c>
@@ -4107,7 +4339,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="4:6">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="3" t="s">
         <v>166</v>
       </c>
@@ -4118,11 +4350,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="4:6">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="3"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="4:6">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="6" t="s">
         <v>156</v>
       </c>
@@ -4133,7 +4365,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="4:6">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="6" t="s">
         <v>158</v>
       </c>
@@ -4144,7 +4376,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="4:6">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="6" t="s">
         <v>161</v>
       </c>
@@ -4155,12 +4387,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="4:6">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
       <c r="F122" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J122"/>
+  <autoFilter ref="D1:D122"/>
   <sortState ref="A1:J125">
     <sortCondition ref="A1:A125"/>
   </sortState>
@@ -4174,12 +4406,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="147.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4190,7 +4593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tecto2umr/pdt-c-functors-comments.xlsx
+++ b/tecto2umr/pdt-c-functors-comments.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19050" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="244">
   <si>
     <t>RSTR</t>
   </si>
@@ -94,9 +99,6 @@
   </si>
   <si>
     <t>DENOM</t>
-  </si>
-  <si>
-    <t>AIM</t>
   </si>
   <si>
     <t>CPHR</t>
@@ -1687,16 +1689,10 @@
     <t>ARG1 for main clause, ARG2 for contrastive clause</t>
   </si>
   <si>
-    <t>ARG1 for main clause, ARG2 for contrastive clause (with conjunction)</t>
-  </si>
-  <si>
     <t>ARG1 for main clause, ARG2 for causative clause (with conjunction)</t>
   </si>
   <si>
     <t>affectee</t>
-  </si>
-  <si>
-    <t>!!! POZOR … podřadné spojení --&gt; souřadné</t>
   </si>
   <si>
     <r>
@@ -1832,13 +1828,624 @@
   </si>
   <si>
     <t xml:space="preserve">            poezie lásky.APP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>změna struktury (nově stejně jako koordinace):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+kořenem nově … contrast-91
+původní rodič … ARG1 (main clause)
+původní dítě … ARG2 (contrastive clause, the one with the conjunction)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">manner / mod
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. závislost</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mod-of</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">compl.rf šipka ukazuje na:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n.* … 6665x --&gt; mod-of OK (podle manuálu sém. subst.), 
+ALE:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adj.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> … 40x (každý, ten apod.) --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mod-of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OK cca 35/40 příkladů, hodně podezřelých anotací)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    ??? ALE konkurenti jsou známi jako "nepřítel".COMPL = jak známi? jako nepřítel.manner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">… 31x --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mod-of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                  jako 1. přiblížení, lépe have-mod-91
+(typ "vychází jako výhodné.COMPL pojistit  --&gt;  pojištění chápeme jako výhodné (jeho vlastnost) --&gt; výhodné.mod pojištění --&gt; inverze: výhodné pojistit.mod-of výhodné;
+?? jako odpověď.COMPL požádá, aby použilo --&gt;  použití je chápáno jako odpověď, tj. odpověď je   vlastností (=mod) použití)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> adv.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* … 4x  --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mod-of 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(chyby v anotaci, pokud se opraví, tak jde o subst)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POZOR, není pravda, že COMPL visí vždy na slovese a má šipku k substantivu, v datech spousta případů, kdy visí na sém adj či n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(a šipka též k substantivu, tj. nejsou jen prohozeny)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!!! 
+hrana (e-child) rodič-COMPL --&gt; manner / mod
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  podle sempos rodiče
+                sempos:   v, adj.* --&gt; manner
+                                    n.*  --&gt; mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(compl.rf šipka) COMPL - substantivum  --&gt; mod-of 
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(NEBO mod, ale pak od substantiva k doplňku!!)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e-rodič (hrana) COMPL má  gram/sempos: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v … 6822x  --&gt; manner OK (podle manuálu má jíty o sloveso)
+ALE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n.denot + n.denot.neg + n.pron.def.pers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> … 87 + 49 + 3x --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mod
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?? undef … 82x (prázdný) ... dodělám</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">adj.denot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">… 64x --&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> manner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OK cca 25/30 případů, kdy jde o deverbální adj, 2x spíš apozice k argumentu; 2x mod)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>typ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">malá pracovna využívaná jako dílnička </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>... manner
+ALE: a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kt provokace dopouštějící samu.COMPL revoluci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">... mod
+ALE: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vědomi rychlosti coby proměnné v oblasti konkurence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...??? nějaká apozice</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1940,8 +2547,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1984,8 +2615,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1993,12 +2629,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2034,16 +2686,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2100,10 +2746,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2119,9 +2835,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2159,9 +2875,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2196,7 +2912,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2231,7 +2947,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2407,57 +3123,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="62" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="62" style="15" customWidth="1"/>
+    <col min="7" max="7" width="67.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="14" customWidth="1"/>
     <col min="10" max="10" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="33">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="36">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="15">
-        <v>2014</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -2468,38 +3184,38 @@
         <v>10207</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="6">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8">
         <v>8427</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8">
         <v>2793</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -2510,44 +3226,38 @@
         <v>209767</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="6">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="8">
         <v>422</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="33">
         <v>0</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="120.75" thickTop="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2558,19 +3268,19 @@
         <v>374608</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="165">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -2581,19 +3291,19 @@
         <v>291817</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -2604,48 +3314,48 @@
         <v>41118</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
       <c r="A11" s="6">
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8">
         <v>4279</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" thickBot="1">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -2656,41 +3366,35 @@
         <v>34902</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+        <v>106</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="33">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickTop="1">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -2701,54 +3405,54 @@
         <v>70575</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="6">
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8">
         <v>1383</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="6">
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="8">
         <v>1179</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -2759,165 +3463,159 @@
         <v>10848</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="H17" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8">
         <v>7317</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8">
         <v>489</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="8">
         <v>3123</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="8">
         <v>2403</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="6">
         <v>15</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8">
         <v>3411</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="38">
         <v>16</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="B23" s="40"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" ht="75.75" thickTop="1">
+      <c r="A24" s="39">
         <v>17</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="43">
         <v>17394</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="D24" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>18</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="8">
         <v>1590</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -2928,22 +3626,22 @@
         <v>28167</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -2954,64 +3652,52 @@
         <v>79877</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+        <v>106</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="38">
         <v>21</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="B28" s="40"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickTop="1">
+      <c r="A29" s="39">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="8">
-        <v>10025</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="1:9" ht="30">
       <c r="A30" s="6">
         <v>23</v>
       </c>
@@ -3022,93 +3708,87 @@
         <v>10757</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="8">
         <v>2713</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>25</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="8">
         <v>7375</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="6">
         <v>26</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="8">
         <v>2921</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+        <v>106</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="38">
         <v>27</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="40"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="1:9" ht="30.75" thickTop="1">
       <c r="A35" s="6">
         <v>28</v>
       </c>
@@ -3119,79 +3799,79 @@
         <v>12042</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>29</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="8">
         <v>7271</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="6">
         <v>30</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="8">
         <v>4932</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="6">
         <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="8">
         <v>6449</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="6">
         <v>32</v>
       </c>
@@ -3202,19 +3882,19 @@
         <v>35669</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="6">
         <v>33</v>
       </c>
@@ -3225,62 +3905,62 @@
         <v>31911</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="6">
         <v>34</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="8">
         <v>8718</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>35</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="6">
         <v>36</v>
       </c>
@@ -3291,72 +3971,66 @@
         <v>10752</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>37</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="8">
         <v>1617</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1">
       <c r="A45" s="6">
         <v>38</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="8">
         <v>1488</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="38">
         <v>39</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="40"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+    </row>
+    <row r="47" spans="1:9" ht="30.75" thickTop="1">
       <c r="A47" s="6">
         <v>40</v>
       </c>
@@ -3367,142 +4041,133 @@
         <v>15359</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H47" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="75">
       <c r="A48" s="6">
         <v>41</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="8">
         <v>656</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>176</v>
+      <c r="D48" s="54" t="s">
+        <v>175</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45">
       <c r="A49" s="6">
         <v>42</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="8">
         <v>142</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" s="6">
         <v>43</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="8">
         <v>989</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
+    <row r="51" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="38">
         <v>44</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="40"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="1:9" ht="331.5" thickTop="1" thickBot="1">
       <c r="A52" s="6">
         <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="8">
         <v>7069</v>
       </c>
-      <c r="D52" s="21" t="s">
-        <v>75</v>
+      <c r="D52" s="51" t="s">
+        <v>240</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="G52" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="30">
-        <v>46</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F52" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H52" s="55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="38">
+        <v>44</v>
+      </c>
+      <c r="B53" s="40"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="1:9" ht="45.75" thickTop="1">
       <c r="A54" s="6">
         <v>47</v>
       </c>
@@ -3513,42 +4178,42 @@
         <v>30097</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="6">
         <v>48</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="8">
         <v>781</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="6">
         <v>49</v>
       </c>
@@ -3559,33 +4224,33 @@
         <v>38823</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="6">
         <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="8">
         <v>5268</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="6">
         <v>51</v>
       </c>
@@ -3596,71 +4261,71 @@
         <v>493996</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="H58" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="30">
+      <c r="H58" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="28">
         <v>52</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="28"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="6">
         <v>53</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" s="8">
         <v>8959</v>
       </c>
-      <c r="D60" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="6">
         <v>54</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="8">
         <v>5141</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>75</v>
+      <c r="D61" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="G61" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G61" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="6">
         <v>55</v>
       </c>
@@ -3670,71 +4335,71 @@
       <c r="C62" s="8">
         <v>59068</v>
       </c>
-      <c r="D62" s="21" t="s">
-        <v>75</v>
+      <c r="D62" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="G62" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
+      <c r="G62" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="28">
         <v>56</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="28"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="6">
         <v>57</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="8">
         <v>7134</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="6">
         <v>58</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="8">
         <v>99</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="6">
         <v>59</v>
       </c>
@@ -3745,129 +4410,129 @@
         <v>76346</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" s="6">
         <v>60</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="8">
         <v>211</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G67" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F67" s="27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="6">
         <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C68" s="8">
         <v>3054</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="6">
         <v>67</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C69" s="8">
         <v>4122</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="6">
         <v>68</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="8">
         <v>1346</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="6">
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="8">
         <v>491</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="30">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="28">
         <v>70</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" s="28"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -3877,159 +4542,159 @@
       <c r="C73" s="8">
         <v>18512</v>
       </c>
-      <c r="D73" s="21" t="s">
-        <v>154</v>
+      <c r="D73" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="G73" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="30">
+      <c r="G73" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="28">
         <v>72</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" s="28"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="6">
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="8">
         <v>5006</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G75" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="30">
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="28">
         <v>74</v>
       </c>
-      <c r="B76" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" s="28"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="6">
         <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" s="8">
         <v>7505</v>
       </c>
-      <c r="D77" s="25"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="2"/>
-      <c r="G77" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="30">
+      <c r="G77" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="28">
         <v>76</v>
       </c>
-      <c r="B78" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="28"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="6">
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79" s="8">
         <v>7403</v>
       </c>
-      <c r="D79" s="24"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="2"/>
-      <c r="G79" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="6">
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="8">
         <v>1199</v>
       </c>
-      <c r="D80" s="24"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="2"/>
-      <c r="G80" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="6">
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C81" s="8">
         <v>5557</v>
       </c>
-      <c r="D81" s="24"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="2"/>
-      <c r="G81" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -4039,13 +4704,13 @@
       <c r="C82" s="8">
         <v>17898</v>
       </c>
-      <c r="D82" s="24"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="2"/>
-      <c r="G82" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -4055,345 +4720,345 @@
       <c r="C83" s="8">
         <v>62978</v>
       </c>
-      <c r="D83" s="24"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="2"/>
-      <c r="G83" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
+      <c r="G83" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="28">
         <v>82</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" s="28"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="D86" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C84" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D86" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:9">
       <c r="D88" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="D89" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="D90" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="D91" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D91" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="E91" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="D92" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="D93" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="D94" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="D96" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="D97" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="99" spans="4:6">
+      <c r="D99" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6">
+      <c r="D100" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="4" t="s">
+    <row r="101" spans="4:6">
+      <c r="D101" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6">
+      <c r="D103" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="D105" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6">
+      <c r="E106" s="18"/>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="D107" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="F107" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E102" s="3" t="s">
+    <row r="108" spans="4:6">
+      <c r="D108" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6">
+      <c r="D109" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D103" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="F109" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D105" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="20"/>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D107" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D108" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E108" s="3" t="s">
+    <row r="110" spans="4:6">
+      <c r="D110" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E110" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F110" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D109" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D110" s="12" t="s">
+    <row r="111" spans="4:6">
+      <c r="D111" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E111" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6">
+      <c r="D112" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F112" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D111" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" s="20" t="s">
+    <row r="113" spans="4:6">
+      <c r="D113" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F113" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D112" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D113" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6">
       <c r="D114" s="11"/>
       <c r="E114" s="3"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6">
       <c r="D115" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6">
+      <c r="D116" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D116" s="3" t="s">
+      <c r="E116" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="D117" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D117" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6">
       <c r="D118" s="3"/>
-      <c r="E118" s="20"/>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="18"/>
+    </row>
+    <row r="119" spans="4:6">
       <c r="D119" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6">
       <c r="D120" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
       <c r="D121" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6">
       <c r="D122" s="6"/>
       <c r="F122" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D122"/>
-  <sortState ref="A1:J125">
+  <sortState ref="A2:J122">
     <sortCondition ref="A1:A125"/>
   </sortState>
   <hyperlinks>
@@ -4408,178 +5073,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="32" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="32" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="32" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="32" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="32" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="32" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="32" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="32" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="32" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="32" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="32" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="32" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="32" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="32" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="32" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="32" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +5258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
